--- a/www/Prod_cost_others.xlsx
+++ b/www/Prod_cost_others.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slakshminarayanan\Desktop\Reckitt_shiny_app\code\V1\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304EAED0-64B1-4B46-970E-63078600EDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6327C3FA-6F5D-4EF2-ABE8-3097B7C12379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -383,7 +383,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -412,7 +412,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.799999237060501</v>
+        <v>0.197999992370605</v>
       </c>
       <c r="C2">
         <v>388.39800000000002</v>
@@ -426,7 +426,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>26.600000381469702</v>
+        <v>0.26600000381469702</v>
       </c>
       <c r="C3">
         <v>634.02200000000005</v>
@@ -440,7 +440,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>0.09</v>
       </c>
       <c r="C4">
         <v>1033.1479999999999</v>
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>26.600000381469702</v>
+        <v>0.26600000381469702</v>
       </c>
       <c r="C5">
         <v>279.14999999999998</v>
@@ -468,7 +468,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24.5</v>
+        <v>0.245</v>
       </c>
       <c r="C6">
         <v>685.18933333333337</v>
